--- a/crawler/豆瓣（这些片子我给六颗星）.xlsx
+++ b/crawler/豆瓣（这些片子我给六颗星）.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\python\crawler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA7F74DE-B761-44D5-A96E-E46F77F419A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="作者：P(Bata)" sheetId="1" r:id="rId1"/>
+    <sheet name="已恢复_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1570,12 +1577,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1583,7 +1590,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1593,6 +1600,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1642,18 +1656,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1691,7 +1713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1725,6 +1747,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1759,9 +1782,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1934,14 +1958,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1966,10 +1990,10 @@
         <v>346</v>
       </c>
       <c r="D2">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +2007,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +2021,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2035,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2025,7 +2049,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2036,10 +2060,10 @@
         <v>351</v>
       </c>
       <c r="D7">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2053,7 +2077,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2064,10 +2088,10 @@
         <v>353</v>
       </c>
       <c r="D9">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2078,10 +2102,10 @@
         <v>354</v>
       </c>
       <c r="D10">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2092,10 +2116,10 @@
         <v>355</v>
       </c>
       <c r="D11">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2106,10 +2130,10 @@
         <v>356</v>
       </c>
       <c r="D12">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2120,10 +2144,10 @@
         <v>357</v>
       </c>
       <c r="D13">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2137,7 +2161,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2175,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2165,7 +2189,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2179,7 +2203,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2231,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2232,10 +2256,10 @@
         <v>365</v>
       </c>
       <c r="D21">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2249,7 +2273,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2263,7 +2287,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2277,7 +2301,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2315,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2305,7 +2329,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2319,7 +2343,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2330,10 +2354,10 @@
         <v>372</v>
       </c>
       <c r="D28">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2347,7 +2371,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2358,10 +2382,10 @@
         <v>374</v>
       </c>
       <c r="D30">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2372,10 +2396,10 @@
         <v>375</v>
       </c>
       <c r="D31">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2389,7 +2413,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2403,7 +2427,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2417,7 +2441,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2431,7 +2455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2442,10 +2466,10 @@
         <v>380</v>
       </c>
       <c r="D36">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2456,10 +2480,10 @@
         <v>381</v>
       </c>
       <c r="D37">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2470,10 +2494,10 @@
         <v>382</v>
       </c>
       <c r="D38">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2487,7 +2511,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2515,7 +2539,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2526,10 +2550,10 @@
         <v>386</v>
       </c>
       <c r="D42">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2543,7 +2567,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2557,7 +2581,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2571,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2585,7 +2609,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2599,7 +2623,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2613,7 +2637,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2627,7 +2651,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2641,7 +2665,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2666,10 +2690,10 @@
         <v>396</v>
       </c>
       <c r="D52">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2680,10 +2704,10 @@
         <v>397</v>
       </c>
       <c r="D53">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2697,7 +2721,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2711,7 +2735,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2725,7 +2749,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2739,7 +2763,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2750,10 +2774,10 @@
         <v>402</v>
       </c>
       <c r="D58">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2767,7 +2791,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2781,7 +2805,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2795,7 +2819,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2809,7 +2833,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2823,7 +2847,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2834,10 +2858,10 @@
         <v>408</v>
       </c>
       <c r="D64">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2851,7 +2875,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2865,7 +2889,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2879,7 +2903,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2893,7 +2917,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2907,7 +2931,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2921,7 +2945,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2935,7 +2959,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2946,10 +2970,10 @@
         <v>416</v>
       </c>
       <c r="D72">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2960,10 +2984,10 @@
         <v>417</v>
       </c>
       <c r="D73">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2974,10 +2998,10 @@
         <v>418</v>
       </c>
       <c r="D74">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2991,7 +3015,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -3005,7 +3029,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3019,7 +3043,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3030,10 +3054,10 @@
         <v>422</v>
       </c>
       <c r="D78">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3047,7 +3071,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -3058,10 +3082,10 @@
         <v>424</v>
       </c>
       <c r="D80">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -3075,7 +3099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -3089,7 +3113,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -3103,7 +3127,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3117,7 +3141,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -3131,7 +3155,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -3142,10 +3166,10 @@
         <v>430</v>
       </c>
       <c r="D86">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -3159,7 +3183,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3170,10 +3194,10 @@
         <v>432</v>
       </c>
       <c r="D88">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -3187,7 +3211,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3201,7 +3225,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3215,7 +3239,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3229,7 +3253,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3243,7 +3267,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3254,10 +3278,10 @@
         <v>438</v>
       </c>
       <c r="D94">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3271,7 +3295,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3285,7 +3309,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3299,7 +3323,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3313,7 +3337,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3327,7 +3351,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3341,7 +3365,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3355,7 +3379,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3369,7 +3393,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3380,10 +3404,10 @@
         <v>447</v>
       </c>
       <c r="D103">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3397,7 +3421,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3408,10 +3432,10 @@
         <v>449</v>
       </c>
       <c r="D105">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3422,10 +3446,10 @@
         <v>450</v>
       </c>
       <c r="D106">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3439,7 +3463,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3450,10 +3474,10 @@
         <v>452</v>
       </c>
       <c r="D108">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3464,10 +3488,10 @@
         <v>453</v>
       </c>
       <c r="D109">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3478,10 +3502,10 @@
         <v>454</v>
       </c>
       <c r="D110">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3495,7 +3519,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3509,7 +3533,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3523,7 +3547,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3537,7 +3561,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3551,7 +3575,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3565,7 +3589,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3579,7 +3603,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3593,7 +3617,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3604,10 +3628,10 @@
         <v>463</v>
       </c>
       <c r="D119">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3621,7 +3645,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3632,10 +3656,10 @@
         <v>465</v>
       </c>
       <c r="D121">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3646,10 +3670,10 @@
         <v>466</v>
       </c>
       <c r="D122">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3660,10 +3684,10 @@
         <v>467</v>
       </c>
       <c r="D123">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3674,10 +3698,10 @@
         <v>468</v>
       </c>
       <c r="D124">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3691,7 +3715,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3705,7 +3729,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3719,7 +3743,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3733,7 +3757,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3747,7 +3771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3758,10 +3782,10 @@
         <v>474</v>
       </c>
       <c r="D130">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3772,10 +3796,10 @@
         <v>475</v>
       </c>
       <c r="D131">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3789,7 +3813,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3803,7 +3827,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3814,10 +3838,10 @@
         <v>478</v>
       </c>
       <c r="D134">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3831,7 +3855,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3845,7 +3869,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3859,7 +3883,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3870,10 +3894,10 @@
         <v>482</v>
       </c>
       <c r="D138">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3887,7 +3911,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3901,7 +3925,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3915,7 +3939,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3926,10 +3950,10 @@
         <v>486</v>
       </c>
       <c r="D142">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3943,7 +3967,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3954,10 +3978,10 @@
         <v>488</v>
       </c>
       <c r="D144">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3968,10 +3992,10 @@
         <v>489</v>
       </c>
       <c r="D145">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3985,7 +4009,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3996,10 +4020,10 @@
         <v>491</v>
       </c>
       <c r="D147">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -4013,7 +4037,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -4027,7 +4051,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -4038,10 +4062,10 @@
         <v>494</v>
       </c>
       <c r="D150">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -4055,7 +4079,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -4069,7 +4093,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -4083,7 +4107,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -4097,7 +4121,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -4108,10 +4132,10 @@
         <v>499</v>
       </c>
       <c r="D155">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -4122,10 +4146,10 @@
         <v>500</v>
       </c>
       <c r="D156">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -4139,7 +4163,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -4153,7 +4177,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -4164,10 +4188,10 @@
         <v>503</v>
       </c>
       <c r="D159">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -4181,7 +4205,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -4195,7 +4219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -4209,7 +4233,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -4220,10 +4244,10 @@
         <v>507</v>
       </c>
       <c r="D163">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -4237,7 +4261,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -4251,7 +4275,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4265,7 +4289,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -4293,7 +4317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -4304,10 +4328,10 @@
         <v>513</v>
       </c>
       <c r="D169">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -4321,7 +4345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -4335,7 +4359,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -4350,349 +4374,350 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="C14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="C15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="C16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="C17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="C18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="C19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="C20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="C21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="C22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="C23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="C24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47"/>
-    <hyperlink ref="C25" r:id="rId48"/>
-    <hyperlink ref="B26" r:id="rId49"/>
-    <hyperlink ref="C26" r:id="rId50"/>
-    <hyperlink ref="B27" r:id="rId51"/>
-    <hyperlink ref="C27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53"/>
-    <hyperlink ref="C28" r:id="rId54"/>
-    <hyperlink ref="B29" r:id="rId55"/>
-    <hyperlink ref="C29" r:id="rId56"/>
-    <hyperlink ref="B30" r:id="rId57"/>
-    <hyperlink ref="C30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59"/>
-    <hyperlink ref="C31" r:id="rId60"/>
-    <hyperlink ref="B32" r:id="rId61"/>
-    <hyperlink ref="C32" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63"/>
-    <hyperlink ref="C33" r:id="rId64"/>
-    <hyperlink ref="B34" r:id="rId65"/>
-    <hyperlink ref="C34" r:id="rId66"/>
-    <hyperlink ref="B35" r:id="rId67"/>
-    <hyperlink ref="C35" r:id="rId68"/>
-    <hyperlink ref="B36" r:id="rId69"/>
-    <hyperlink ref="C36" r:id="rId70"/>
-    <hyperlink ref="B37" r:id="rId71"/>
-    <hyperlink ref="C37" r:id="rId72"/>
-    <hyperlink ref="B38" r:id="rId73"/>
-    <hyperlink ref="C38" r:id="rId74"/>
-    <hyperlink ref="B39" r:id="rId75"/>
-    <hyperlink ref="C39" r:id="rId76"/>
-    <hyperlink ref="B40" r:id="rId77"/>
-    <hyperlink ref="C40" r:id="rId78"/>
-    <hyperlink ref="B41" r:id="rId79"/>
-    <hyperlink ref="C41" r:id="rId80"/>
-    <hyperlink ref="B42" r:id="rId81"/>
-    <hyperlink ref="C42" r:id="rId82"/>
-    <hyperlink ref="B43" r:id="rId83"/>
-    <hyperlink ref="C43" r:id="rId84"/>
-    <hyperlink ref="B44" r:id="rId85"/>
-    <hyperlink ref="C44" r:id="rId86"/>
-    <hyperlink ref="B45" r:id="rId87"/>
-    <hyperlink ref="C45" r:id="rId88"/>
-    <hyperlink ref="B46" r:id="rId89"/>
-    <hyperlink ref="C46" r:id="rId90"/>
-    <hyperlink ref="B47" r:id="rId91"/>
-    <hyperlink ref="C47" r:id="rId92"/>
-    <hyperlink ref="B48" r:id="rId93"/>
-    <hyperlink ref="C48" r:id="rId94"/>
-    <hyperlink ref="B49" r:id="rId95"/>
-    <hyperlink ref="C49" r:id="rId96"/>
-    <hyperlink ref="B50" r:id="rId97"/>
-    <hyperlink ref="C50" r:id="rId98"/>
-    <hyperlink ref="B51" r:id="rId99"/>
-    <hyperlink ref="C51" r:id="rId100"/>
-    <hyperlink ref="B52" r:id="rId101"/>
-    <hyperlink ref="C52" r:id="rId102"/>
-    <hyperlink ref="B53" r:id="rId103"/>
-    <hyperlink ref="C53" r:id="rId104"/>
-    <hyperlink ref="B54" r:id="rId105"/>
-    <hyperlink ref="C54" r:id="rId106"/>
-    <hyperlink ref="B55" r:id="rId107"/>
-    <hyperlink ref="C55" r:id="rId108"/>
-    <hyperlink ref="B56" r:id="rId109"/>
-    <hyperlink ref="C56" r:id="rId110"/>
-    <hyperlink ref="B57" r:id="rId111"/>
-    <hyperlink ref="C57" r:id="rId112"/>
-    <hyperlink ref="B58" r:id="rId113"/>
-    <hyperlink ref="C58" r:id="rId114"/>
-    <hyperlink ref="B59" r:id="rId115"/>
-    <hyperlink ref="C59" r:id="rId116"/>
-    <hyperlink ref="B60" r:id="rId117"/>
-    <hyperlink ref="C60" r:id="rId118"/>
-    <hyperlink ref="B61" r:id="rId119"/>
-    <hyperlink ref="C61" r:id="rId120"/>
-    <hyperlink ref="B62" r:id="rId121"/>
-    <hyperlink ref="C62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123"/>
-    <hyperlink ref="C63" r:id="rId124"/>
-    <hyperlink ref="B64" r:id="rId125"/>
-    <hyperlink ref="C64" r:id="rId126"/>
-    <hyperlink ref="B65" r:id="rId127"/>
-    <hyperlink ref="C65" r:id="rId128"/>
-    <hyperlink ref="B66" r:id="rId129"/>
-    <hyperlink ref="C66" r:id="rId130"/>
-    <hyperlink ref="B67" r:id="rId131"/>
-    <hyperlink ref="C67" r:id="rId132"/>
-    <hyperlink ref="B68" r:id="rId133"/>
-    <hyperlink ref="C68" r:id="rId134"/>
-    <hyperlink ref="B69" r:id="rId135"/>
-    <hyperlink ref="C69" r:id="rId136"/>
-    <hyperlink ref="B70" r:id="rId137"/>
-    <hyperlink ref="C70" r:id="rId138"/>
-    <hyperlink ref="B71" r:id="rId139"/>
-    <hyperlink ref="C71" r:id="rId140"/>
-    <hyperlink ref="B72" r:id="rId141"/>
-    <hyperlink ref="C72" r:id="rId142"/>
-    <hyperlink ref="B73" r:id="rId143"/>
-    <hyperlink ref="C73" r:id="rId144"/>
-    <hyperlink ref="B74" r:id="rId145"/>
-    <hyperlink ref="C74" r:id="rId146"/>
-    <hyperlink ref="B75" r:id="rId147"/>
-    <hyperlink ref="C75" r:id="rId148"/>
-    <hyperlink ref="B76" r:id="rId149"/>
-    <hyperlink ref="C76" r:id="rId150"/>
-    <hyperlink ref="B77" r:id="rId151"/>
-    <hyperlink ref="C77" r:id="rId152"/>
-    <hyperlink ref="B78" r:id="rId153"/>
-    <hyperlink ref="C78" r:id="rId154"/>
-    <hyperlink ref="B79" r:id="rId155"/>
-    <hyperlink ref="C79" r:id="rId156"/>
-    <hyperlink ref="B80" r:id="rId157"/>
-    <hyperlink ref="C80" r:id="rId158"/>
-    <hyperlink ref="B81" r:id="rId159"/>
-    <hyperlink ref="C81" r:id="rId160"/>
-    <hyperlink ref="B82" r:id="rId161"/>
-    <hyperlink ref="C82" r:id="rId162"/>
-    <hyperlink ref="B83" r:id="rId163"/>
-    <hyperlink ref="C83" r:id="rId164"/>
-    <hyperlink ref="B84" r:id="rId165"/>
-    <hyperlink ref="C84" r:id="rId166"/>
-    <hyperlink ref="B85" r:id="rId167"/>
-    <hyperlink ref="C85" r:id="rId168"/>
-    <hyperlink ref="B86" r:id="rId169"/>
-    <hyperlink ref="C86" r:id="rId170"/>
-    <hyperlink ref="B87" r:id="rId171"/>
-    <hyperlink ref="C87" r:id="rId172"/>
-    <hyperlink ref="B88" r:id="rId173"/>
-    <hyperlink ref="C88" r:id="rId174"/>
-    <hyperlink ref="B89" r:id="rId175"/>
-    <hyperlink ref="C89" r:id="rId176"/>
-    <hyperlink ref="B90" r:id="rId177"/>
-    <hyperlink ref="C90" r:id="rId178"/>
-    <hyperlink ref="B91" r:id="rId179"/>
-    <hyperlink ref="C91" r:id="rId180"/>
-    <hyperlink ref="B92" r:id="rId181"/>
-    <hyperlink ref="C92" r:id="rId182"/>
-    <hyperlink ref="B93" r:id="rId183"/>
-    <hyperlink ref="C93" r:id="rId184"/>
-    <hyperlink ref="B94" r:id="rId185"/>
-    <hyperlink ref="C94" r:id="rId186"/>
-    <hyperlink ref="B95" r:id="rId187"/>
-    <hyperlink ref="C95" r:id="rId188"/>
-    <hyperlink ref="B96" r:id="rId189"/>
-    <hyperlink ref="C96" r:id="rId190"/>
-    <hyperlink ref="B97" r:id="rId191"/>
-    <hyperlink ref="C97" r:id="rId192"/>
-    <hyperlink ref="B98" r:id="rId193"/>
-    <hyperlink ref="C98" r:id="rId194"/>
-    <hyperlink ref="B99" r:id="rId195"/>
-    <hyperlink ref="C99" r:id="rId196"/>
-    <hyperlink ref="B100" r:id="rId197"/>
-    <hyperlink ref="C100" r:id="rId198"/>
-    <hyperlink ref="B101" r:id="rId199"/>
-    <hyperlink ref="C101" r:id="rId200"/>
-    <hyperlink ref="B102" r:id="rId201"/>
-    <hyperlink ref="C102" r:id="rId202"/>
-    <hyperlink ref="B103" r:id="rId203"/>
-    <hyperlink ref="C103" r:id="rId204"/>
-    <hyperlink ref="B104" r:id="rId205"/>
-    <hyperlink ref="C104" r:id="rId206"/>
-    <hyperlink ref="B105" r:id="rId207"/>
-    <hyperlink ref="C105" r:id="rId208"/>
-    <hyperlink ref="B106" r:id="rId209"/>
-    <hyperlink ref="C106" r:id="rId210"/>
-    <hyperlink ref="B107" r:id="rId211"/>
-    <hyperlink ref="C107" r:id="rId212"/>
-    <hyperlink ref="B108" r:id="rId213"/>
-    <hyperlink ref="C108" r:id="rId214"/>
-    <hyperlink ref="B109" r:id="rId215"/>
-    <hyperlink ref="C109" r:id="rId216"/>
-    <hyperlink ref="B110" r:id="rId217"/>
-    <hyperlink ref="C110" r:id="rId218"/>
-    <hyperlink ref="B111" r:id="rId219"/>
-    <hyperlink ref="C111" r:id="rId220"/>
-    <hyperlink ref="B112" r:id="rId221"/>
-    <hyperlink ref="C112" r:id="rId222"/>
-    <hyperlink ref="B113" r:id="rId223"/>
-    <hyperlink ref="C113" r:id="rId224"/>
-    <hyperlink ref="B114" r:id="rId225"/>
-    <hyperlink ref="C114" r:id="rId226"/>
-    <hyperlink ref="B115" r:id="rId227"/>
-    <hyperlink ref="C115" r:id="rId228"/>
-    <hyperlink ref="B116" r:id="rId229"/>
-    <hyperlink ref="C116" r:id="rId230"/>
-    <hyperlink ref="B117" r:id="rId231"/>
-    <hyperlink ref="C117" r:id="rId232"/>
-    <hyperlink ref="B118" r:id="rId233"/>
-    <hyperlink ref="C118" r:id="rId234"/>
-    <hyperlink ref="B119" r:id="rId235"/>
-    <hyperlink ref="C119" r:id="rId236"/>
-    <hyperlink ref="B120" r:id="rId237"/>
-    <hyperlink ref="C120" r:id="rId238"/>
-    <hyperlink ref="B121" r:id="rId239"/>
-    <hyperlink ref="C121" r:id="rId240"/>
-    <hyperlink ref="B122" r:id="rId241"/>
-    <hyperlink ref="C122" r:id="rId242"/>
-    <hyperlink ref="B123" r:id="rId243"/>
-    <hyperlink ref="C123" r:id="rId244"/>
-    <hyperlink ref="B124" r:id="rId245"/>
-    <hyperlink ref="C124" r:id="rId246"/>
-    <hyperlink ref="B125" r:id="rId247"/>
-    <hyperlink ref="C125" r:id="rId248"/>
-    <hyperlink ref="B126" r:id="rId249"/>
-    <hyperlink ref="C126" r:id="rId250"/>
-    <hyperlink ref="B127" r:id="rId251"/>
-    <hyperlink ref="C127" r:id="rId252"/>
-    <hyperlink ref="B128" r:id="rId253"/>
-    <hyperlink ref="C128" r:id="rId254"/>
-    <hyperlink ref="B129" r:id="rId255"/>
-    <hyperlink ref="C129" r:id="rId256"/>
-    <hyperlink ref="B130" r:id="rId257"/>
-    <hyperlink ref="C130" r:id="rId258"/>
-    <hyperlink ref="B131" r:id="rId259"/>
-    <hyperlink ref="C131" r:id="rId260"/>
-    <hyperlink ref="B132" r:id="rId261"/>
-    <hyperlink ref="C132" r:id="rId262"/>
-    <hyperlink ref="B133" r:id="rId263"/>
-    <hyperlink ref="C133" r:id="rId264"/>
-    <hyperlink ref="B134" r:id="rId265"/>
-    <hyperlink ref="C134" r:id="rId266"/>
-    <hyperlink ref="B135" r:id="rId267"/>
-    <hyperlink ref="C135" r:id="rId268"/>
-    <hyperlink ref="B136" r:id="rId269"/>
-    <hyperlink ref="C136" r:id="rId270"/>
-    <hyperlink ref="B137" r:id="rId271"/>
-    <hyperlink ref="C137" r:id="rId272"/>
-    <hyperlink ref="B138" r:id="rId273"/>
-    <hyperlink ref="C138" r:id="rId274"/>
-    <hyperlink ref="B139" r:id="rId275"/>
-    <hyperlink ref="C139" r:id="rId276"/>
-    <hyperlink ref="B140" r:id="rId277"/>
-    <hyperlink ref="C140" r:id="rId278"/>
-    <hyperlink ref="B141" r:id="rId279"/>
-    <hyperlink ref="C141" r:id="rId280"/>
-    <hyperlink ref="B142" r:id="rId281"/>
-    <hyperlink ref="C142" r:id="rId282"/>
-    <hyperlink ref="B143" r:id="rId283"/>
-    <hyperlink ref="C143" r:id="rId284"/>
-    <hyperlink ref="B144" r:id="rId285"/>
-    <hyperlink ref="C144" r:id="rId286"/>
-    <hyperlink ref="B145" r:id="rId287"/>
-    <hyperlink ref="C145" r:id="rId288"/>
-    <hyperlink ref="B146" r:id="rId289"/>
-    <hyperlink ref="C146" r:id="rId290"/>
-    <hyperlink ref="B147" r:id="rId291"/>
-    <hyperlink ref="C147" r:id="rId292"/>
-    <hyperlink ref="B148" r:id="rId293"/>
-    <hyperlink ref="C148" r:id="rId294"/>
-    <hyperlink ref="B149" r:id="rId295"/>
-    <hyperlink ref="C149" r:id="rId296"/>
-    <hyperlink ref="B150" r:id="rId297"/>
-    <hyperlink ref="C150" r:id="rId298"/>
-    <hyperlink ref="B151" r:id="rId299"/>
-    <hyperlink ref="C151" r:id="rId300"/>
-    <hyperlink ref="B152" r:id="rId301"/>
-    <hyperlink ref="C152" r:id="rId302"/>
-    <hyperlink ref="B153" r:id="rId303"/>
-    <hyperlink ref="C153" r:id="rId304"/>
-    <hyperlink ref="B154" r:id="rId305"/>
-    <hyperlink ref="C154" r:id="rId306"/>
-    <hyperlink ref="B155" r:id="rId307"/>
-    <hyperlink ref="C155" r:id="rId308"/>
-    <hyperlink ref="B156" r:id="rId309"/>
-    <hyperlink ref="C156" r:id="rId310"/>
-    <hyperlink ref="B157" r:id="rId311"/>
-    <hyperlink ref="C157" r:id="rId312"/>
-    <hyperlink ref="B158" r:id="rId313"/>
-    <hyperlink ref="C158" r:id="rId314"/>
-    <hyperlink ref="B159" r:id="rId315"/>
-    <hyperlink ref="C159" r:id="rId316"/>
-    <hyperlink ref="B160" r:id="rId317"/>
-    <hyperlink ref="C160" r:id="rId318"/>
-    <hyperlink ref="B161" r:id="rId319"/>
-    <hyperlink ref="C161" r:id="rId320"/>
-    <hyperlink ref="B162" r:id="rId321"/>
-    <hyperlink ref="C162" r:id="rId322"/>
-    <hyperlink ref="B163" r:id="rId323"/>
-    <hyperlink ref="C163" r:id="rId324"/>
-    <hyperlink ref="B164" r:id="rId325"/>
-    <hyperlink ref="C164" r:id="rId326"/>
-    <hyperlink ref="B165" r:id="rId327"/>
-    <hyperlink ref="C165" r:id="rId328"/>
-    <hyperlink ref="B166" r:id="rId329"/>
-    <hyperlink ref="C166" r:id="rId330"/>
-    <hyperlink ref="B167" r:id="rId331"/>
-    <hyperlink ref="C167" r:id="rId332"/>
-    <hyperlink ref="B168" r:id="rId333"/>
-    <hyperlink ref="C168" r:id="rId334"/>
-    <hyperlink ref="B169" r:id="rId335"/>
-    <hyperlink ref="C169" r:id="rId336"/>
-    <hyperlink ref="B170" r:id="rId337"/>
-    <hyperlink ref="C170" r:id="rId338"/>
-    <hyperlink ref="B171" r:id="rId339"/>
-    <hyperlink ref="C171" r:id="rId340"/>
-    <hyperlink ref="B172" r:id="rId341"/>
-    <hyperlink ref="C172" r:id="rId342"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B98" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B100" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C100" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B101" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C102" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C103" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C105" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B107" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C107" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B108" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C108" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B109" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C109" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B110" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C110" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B111" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C111" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B112" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C112" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B113" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C113" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B114" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C114" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B115" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C115" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B116" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C116" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B117" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C117" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B118" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C118" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B119" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C119" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B120" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C120" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B121" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C121" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B122" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C122" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B123" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C123" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B124" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C124" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B125" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C125" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B126" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C126" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B127" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C127" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B128" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C128" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B129" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C129" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B130" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C130" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B131" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C131" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B132" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C132" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B133" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C133" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B134" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C134" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B135" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C135" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B136" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C136" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B137" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C137" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B138" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C138" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B139" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C139" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B140" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C140" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B141" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C141" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B142" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C142" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B143" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C143" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B144" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C144" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B145" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C145" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B146" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C146" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B147" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C147" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B148" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C148" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B149" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C149" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B150" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C150" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B151" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C151" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B152" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C152" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B153" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C153" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B154" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C154" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B155" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C155" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B156" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C156" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B157" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C157" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B158" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C158" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B159" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C159" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B160" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C160" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B161" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C161" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B162" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C162" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B163" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C163" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B164" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C164" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B165" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C165" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B166" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C166" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B167" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C167" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B168" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C168" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B169" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C169" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B170" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C170" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B171" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C171" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B172" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C172" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
